--- a/اضافي وتصفية نهائي.xlsx
+++ b/اضافي وتصفية نهائي.xlsx
@@ -11,6 +11,9 @@
     <sheet name="تصفية " sheetId="2" r:id="rId2"/>
     <sheet name="ورقة3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'تصفية '!$A$2:$N$34</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
@@ -2099,13 +2102,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A2:N35"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2292,7 +2296,7 @@
         <v>4845</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -2376,7 +2380,7 @@
         <v>4845</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -2538,7 +2542,7 @@
         <v>4845</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -2577,7 +2581,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -2618,7 +2622,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -2657,7 +2661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>13</v>
       </c>
@@ -2696,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>14</v>
       </c>
@@ -2932,7 +2936,7 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>20</v>
       </c>
@@ -2973,7 +2977,7 @@
         <v>-585</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>21</v>
       </c>
@@ -3014,7 +3018,7 @@
         <v>-2055</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>22</v>
       </c>
@@ -3055,7 +3059,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>23</v>
       </c>
@@ -3094,7 +3098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>24</v>
       </c>
@@ -3250,7 +3254,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>28</v>
       </c>
@@ -3276,20 +3280,22 @@
       <c r="H30" s="20"/>
       <c r="I30" s="20"/>
       <c r="J30" s="21"/>
-      <c r="K30" s="20"/>
+      <c r="K30" s="20">
+        <v>550</v>
+      </c>
       <c r="L30" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="M30" s="20">
         <f t="shared" si="2"/>
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="N30" s="20">
         <v>586</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>29</v>
       </c>
@@ -3326,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>30</v>
       </c>
@@ -3365,7 +3371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="16">
         <v>31</v>
       </c>
@@ -3404,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="16">
         <v>32</v>
       </c>
@@ -3454,19 +3460,19 @@
       <c r="D35" s="26"/>
       <c r="E35" s="21">
         <f>SUBTOTAL(9,E3:E34)</f>
-        <v>70974.5</v>
+        <v>57505</v>
       </c>
       <c r="F35" s="21">
         <f t="shared" ref="F35:N35" si="3">SUBTOTAL(9,F3:F34)</f>
-        <v>1172</v>
+        <v>1077</v>
       </c>
       <c r="G35" s="21">
         <f t="shared" si="3"/>
-        <v>29240</v>
+        <v>26925</v>
       </c>
       <c r="H35" s="21">
         <f t="shared" si="3"/>
-        <v>22874.3</v>
+        <v>18494</v>
       </c>
       <c r="I35" s="21">
         <f t="shared" si="3"/>
@@ -3478,22 +3484,43 @@
       </c>
       <c r="K35" s="21">
         <f t="shared" si="3"/>
-        <v>10089</v>
+        <v>1480</v>
       </c>
       <c r="L35" s="21">
         <f t="shared" si="3"/>
-        <v>15999</v>
+        <v>7390</v>
       </c>
       <c r="M35" s="21">
         <f t="shared" si="3"/>
-        <v>107089.8</v>
+        <v>95534</v>
       </c>
       <c r="N35" s="21">
         <f t="shared" si="3"/>
-        <v>64410.5</v>
+        <v>56025</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:N34">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="احمد جمال"/>
+        <filter val="أم خالد"/>
+        <filter val="أم نداء"/>
+        <filter val="أم هشام"/>
+        <filter val="جمال عبدالله"/>
+        <filter val="خالد جمال"/>
+        <filter val="شريف جمال"/>
+        <filter val="عاطف وصفي"/>
+        <filter val="عبير شعبان"/>
+        <filter val="عطايات جمال"/>
+        <filter val="غانم عبدالله"/>
+        <filter val="محمد شعبان"/>
+        <filter val="مروان خالد"/>
+        <filter val="مصطفى شعبان"/>
+        <filter val="هشام خالد"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <conditionalFormatting sqref="M3:N34">
     <cfRule type="cellIs" priority="1" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>1</formula>

--- a/اضافي وتصفية نهائي.xlsx
+++ b/اضافي وتصفية نهائي.xlsx
@@ -15,6 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'تصفية '!$A$2:$N$34</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -306,13 +307,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9BBB59"/>
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -454,42 +455,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -819,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G30"/>
+    <sheetView rightToLeft="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2102,14 +2103,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+  <sheetPr filterMode="1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:N35"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E35" sqref="E35"/>
+      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2130,1394 +2133,1388 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="72" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="19"/>
+      <c r="N2" s="17"/>
     </row>
     <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="16">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="20">
+      <c r="B3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="18">
         <v>28.5</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="18">
         <v>170</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="18">
         <v>4845</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="18">
         <v>75</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="18">
         <f>F3*25</f>
         <v>1875</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="18">
         <v>3947</v>
       </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20">
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18">
         <f>K3+J3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="18">
         <f>E3+G3+H3+I3-L3</f>
         <v>10667</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="18">
         <v>4845</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="18">
         <v>19</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="18">
         <v>170</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="18">
+        <f>C4*D4</f>
         <v>3230</v>
       </c>
-      <c r="F4" s="20">
-        <v>47</v>
-      </c>
-      <c r="G4" s="20">
+      <c r="F4" s="18">
+        <v>52</v>
+      </c>
+      <c r="G4" s="18">
         <f t="shared" ref="G4:G34" si="0">F4*25</f>
-        <v>1175</v>
-      </c>
-      <c r="H4" s="20">
+        <v>1300</v>
+      </c>
+      <c r="H4" s="18">
         <v>3947</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20">
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18">
         <f t="shared" ref="L4:L34" si="1">K4+J4</f>
         <v>0</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="18">
         <f t="shared" ref="M4:M34" si="2">E4+G4+H4+I4-L4</f>
-        <v>8352</v>
-      </c>
-      <c r="N4" s="20">
+        <v>8477</v>
+      </c>
+      <c r="N4" s="18">
         <v>3230</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
+    <row r="5" spans="1:14" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <v>28.5</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>170</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="18">
         <v>4845</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="18">
         <v>91</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="18">
         <f t="shared" si="0"/>
         <v>2275</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="18">
         <v>3947</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21">
-        <v>5910</v>
-      </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20">
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="18">
+        <v>6630</v>
+      </c>
+      <c r="L5" s="18">
         <f t="shared" si="1"/>
-        <v>5910</v>
-      </c>
-      <c r="M5" s="20">
+        <v>6630</v>
+      </c>
+      <c r="M5" s="18">
         <f t="shared" si="2"/>
-        <v>5157</v>
-      </c>
-      <c r="N5" s="20">
+        <v>4437</v>
+      </c>
+      <c r="N5" s="18">
         <v>4845</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="18">
         <v>10.35</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="18">
         <v>170</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="18">
         <v>1759.5</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="18">
         <v>16</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="18">
         <f>D6/8*F6</f>
         <v>340</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="18">
         <v>433.3</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="20">
+      <c r="I6" s="18"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="18">
         <v>2099</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="18">
         <f t="shared" si="1"/>
         <v>2099</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="18">
         <f t="shared" si="2"/>
         <v>433.80000000000018</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="18">
         <v>2099.5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="16">
+    <row r="7" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="18">
         <v>28.5</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="18">
         <v>170</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="18">
         <v>4845</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="18">
         <v>252</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="18">
         <f t="shared" si="0"/>
         <v>6300</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="18">
         <v>3947</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20">
+      <c r="I7" s="18"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="18">
+        <v>5368</v>
+      </c>
+      <c r="L7" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="20">
+        <v>5368</v>
+      </c>
+      <c r="M7" s="18">
         <f t="shared" si="2"/>
-        <v>15092</v>
-      </c>
-      <c r="N7" s="20">
+        <v>9724</v>
+      </c>
+      <c r="N7" s="18">
         <v>4845</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="18">
         <v>28.5</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="18">
         <v>170</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="18">
         <v>4845</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="18">
         <v>79</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="18">
         <f t="shared" si="0"/>
         <v>1975</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="18">
         <v>3947</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20">
+      <c r="I8" s="18"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="18">
+        <v>2210</v>
+      </c>
+      <c r="L8" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="20">
+        <v>2210</v>
+      </c>
+      <c r="M8" s="18">
         <f t="shared" si="2"/>
-        <v>10767</v>
-      </c>
-      <c r="N8" s="20">
+        <v>8557</v>
+      </c>
+      <c r="N8" s="18">
         <v>4845</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
+    <row r="9" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="18">
         <v>27.5</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="18">
         <v>170</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="18">
         <v>4675</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="18">
         <v>83</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="18">
         <f t="shared" si="0"/>
         <v>2075</v>
       </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="20">
-        <v>200</v>
-      </c>
-      <c r="L9" s="20">
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="18">
+        <v>300</v>
+      </c>
+      <c r="L9" s="18">
         <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="M9" s="20">
+        <v>300</v>
+      </c>
+      <c r="M9" s="18">
         <f t="shared" si="2"/>
-        <v>6550</v>
-      </c>
-      <c r="N9" s="20">
+        <v>6450</v>
+      </c>
+      <c r="N9" s="18">
         <v>4475</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
+    <row r="10" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
         <v>8</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="18">
         <v>29</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="18">
         <v>170</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="18">
         <v>4930</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="18">
         <v>74</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="18">
         <f t="shared" si="0"/>
         <v>1850</v>
       </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20">
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="18">
         <f t="shared" si="2"/>
         <v>6780</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="18">
         <v>4930</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
+    <row r="11" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
         <v>9</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="20">
+      <c r="C11" s="18">
         <v>28.5</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="18">
         <v>170</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="18">
         <v>4845</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="18">
         <v>74</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="18">
         <f t="shared" si="0"/>
         <v>1850</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="18">
         <v>2706</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20">
+      <c r="I11" s="18"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="18">
         <f t="shared" si="2"/>
         <v>9401</v>
       </c>
-      <c r="N11" s="20">
+      <c r="N11" s="18">
         <v>4845</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16">
+      <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="18">
         <v>11</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="18">
         <v>170</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="18">
         <v>1870</v>
       </c>
-      <c r="F12" s="20">
-        <v>0</v>
-      </c>
-      <c r="G12" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20">
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="18">
         <f t="shared" si="2"/>
         <v>1870</v>
       </c>
-      <c r="N12" s="20">
+      <c r="N12" s="18">
         <v>2122</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16">
+      <c r="A13" s="14">
         <v>11</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="18">
         <v>8.5</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="18">
         <v>170</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="18">
         <v>1445</v>
       </c>
-      <c r="F13" s="20">
-        <v>0</v>
-      </c>
-      <c r="G13" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="20">
+      <c r="F13" s="18">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="18">
         <v>300</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L13" s="18">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="M13" s="20">
+      <c r="M13" s="18">
         <f t="shared" si="2"/>
         <v>1145</v>
       </c>
-      <c r="N13" s="20">
+      <c r="N13" s="18">
         <v>1313</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16">
+      <c r="A14" s="14">
         <v>12</v>
       </c>
-      <c r="B14" s="17">
-        <v>0</v>
-      </c>
-      <c r="C14" s="20">
-        <v>0</v>
-      </c>
-      <c r="D14" s="20">
+      <c r="B14" s="15">
+        <v>0</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0</v>
+      </c>
+      <c r="D14" s="18">
         <v>170</v>
       </c>
-      <c r="E14" s="20">
-        <v>0</v>
-      </c>
-      <c r="F14" s="20">
-        <v>0</v>
-      </c>
-      <c r="G14" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20">
+      <c r="E14" s="18">
+        <v>0</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
+      <c r="A15" s="14">
         <v>13</v>
       </c>
-      <c r="B15" s="17">
-        <v>0</v>
-      </c>
-      <c r="C15" s="20">
-        <v>0</v>
-      </c>
-      <c r="D15" s="20">
+      <c r="B15" s="15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0</v>
+      </c>
+      <c r="D15" s="18">
         <v>170</v>
       </c>
-      <c r="E15" s="20">
-        <v>0</v>
-      </c>
-      <c r="F15" s="20">
-        <v>0</v>
-      </c>
-      <c r="G15" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20">
+      <c r="E15" s="18">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
+        <v>0</v>
+      </c>
+      <c r="G15" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N15" s="20">
+      <c r="N15" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16">
+      <c r="A16" s="14">
         <v>14</v>
       </c>
-      <c r="B16" s="17">
-        <v>0</v>
-      </c>
-      <c r="C16" s="20">
-        <v>0</v>
-      </c>
-      <c r="D16" s="20">
+      <c r="B16" s="15">
+        <v>0</v>
+      </c>
+      <c r="C16" s="18">
+        <v>0</v>
+      </c>
+      <c r="D16" s="18">
         <v>170</v>
       </c>
-      <c r="E16" s="20">
-        <v>0</v>
-      </c>
-      <c r="F16" s="20">
-        <v>0</v>
-      </c>
-      <c r="G16" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20">
+      <c r="E16" s="18">
+        <v>0</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0</v>
+      </c>
+      <c r="G16" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N16" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="16">
+      <c r="N16" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
         <v>15</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="18">
         <v>29</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="18">
         <v>130</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="18">
         <v>3770</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="18">
         <v>73</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G17" s="18">
         <f t="shared" si="0"/>
         <v>1825</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="20">
-        <v>1280</v>
-      </c>
-      <c r="L17" s="20">
+      <c r="H17" s="18">
+        <v>6782</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="18">
+        <v>6930</v>
+      </c>
+      <c r="L17" s="18">
         <f t="shared" si="1"/>
-        <v>1280</v>
-      </c>
-      <c r="M17" s="20">
+        <v>6930</v>
+      </c>
+      <c r="M17" s="18">
         <f t="shared" si="2"/>
-        <v>4315</v>
-      </c>
-      <c r="N17" s="20">
+        <v>5447</v>
+      </c>
+      <c r="N17" s="18">
         <v>2490</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="16">
+    <row r="18" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
         <v>16</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="18">
         <v>29</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="18">
         <v>130</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="18">
         <v>3770</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="18">
         <v>76</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G18" s="18">
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20">
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18" s="18">
         <f t="shared" si="2"/>
         <v>5670</v>
       </c>
-      <c r="N18" s="20">
+      <c r="N18" s="18">
         <v>3770</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
+    <row r="19" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
         <v>17</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="18">
         <v>29</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="18">
         <v>130</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="18">
         <v>3770</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="18">
         <v>71</v>
       </c>
-      <c r="G19" s="20">
+      <c r="G19" s="18">
         <f t="shared" si="0"/>
         <v>1775</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20">
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19" s="18">
         <f t="shared" si="2"/>
         <v>5545</v>
       </c>
-      <c r="N19" s="20">
+      <c r="N19" s="18">
         <v>3770</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="16">
+    <row r="20" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
         <v>18</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="18">
         <v>29</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="18">
         <v>130</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="18">
         <v>3770</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="18">
         <v>69</v>
       </c>
-      <c r="G20" s="20">
+      <c r="G20" s="18">
         <f t="shared" si="0"/>
         <v>1725</v>
       </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20">
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="18">
         <f t="shared" si="2"/>
         <v>5495</v>
       </c>
-      <c r="N20" s="20">
+      <c r="N20" s="18">
         <v>3770</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="16">
+    <row r="21" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
         <v>19</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="18">
         <v>29</v>
       </c>
-      <c r="D21" s="20">
+      <c r="D21" s="18">
         <v>130</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="18">
         <v>3770</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="18">
         <v>74</v>
       </c>
-      <c r="G21" s="20">
+      <c r="G21" s="18">
         <f t="shared" si="0"/>
         <v>1850</v>
       </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20">
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M21" s="20">
+      <c r="M21" s="18">
         <f t="shared" si="2"/>
         <v>5620</v>
       </c>
-      <c r="N21" s="20">
+      <c r="N21" s="18">
         <v>3770</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16">
+      <c r="A22" s="14">
         <v>20</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="20">
+      <c r="C22" s="18">
         <v>11</v>
       </c>
-      <c r="D22" s="20">
+      <c r="D22" s="18">
         <v>120</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="18">
         <v>1320</v>
       </c>
-      <c r="F22" s="20">
-        <v>0</v>
-      </c>
-      <c r="G22" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="20">
+      <c r="F22" s="18">
+        <v>0</v>
+      </c>
+      <c r="G22" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="18">
         <v>2220</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L22" s="18">
         <f t="shared" si="1"/>
         <v>2220</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22" s="18">
         <f t="shared" si="2"/>
         <v>-900</v>
       </c>
-      <c r="N22" s="20">
+      <c r="N22" s="18">
         <v>-585</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16">
+      <c r="A23" s="14">
         <v>21</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="18">
         <v>11</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="18">
         <v>120</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="18">
         <v>1320</v>
       </c>
-      <c r="F23" s="20">
-        <v>0</v>
-      </c>
-      <c r="G23" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="20">
+      <c r="F23" s="18">
+        <v>0</v>
+      </c>
+      <c r="G23" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="18">
         <v>3690</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L23" s="18">
         <f t="shared" si="1"/>
         <v>3690</v>
       </c>
-      <c r="M23" s="20">
+      <c r="M23" s="18">
         <f t="shared" si="2"/>
         <v>-2370</v>
       </c>
-      <c r="N23" s="20">
+      <c r="N23" s="18">
         <v>-2055</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16">
+      <c r="A24" s="14">
         <v>22</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="18">
         <v>3</v>
       </c>
-      <c r="D24" s="20">
+      <c r="D24" s="18">
         <v>120</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="18">
         <v>360</v>
       </c>
-      <c r="F24" s="20">
-        <v>0</v>
-      </c>
-      <c r="G24" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="20">
+      <c r="F24" s="18">
+        <v>0</v>
+      </c>
+      <c r="G24" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="18">
         <v>300</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24" s="18">
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-      <c r="M24" s="20">
+      <c r="M24" s="18">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="N24" s="20">
+      <c r="N24" s="18">
         <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16">
+      <c r="A25" s="14">
         <v>23</v>
       </c>
-      <c r="B25" s="17">
-        <v>0</v>
-      </c>
-      <c r="C25" s="20">
-        <v>0</v>
-      </c>
-      <c r="D25" s="20">
-        <v>0</v>
-      </c>
-      <c r="E25" s="20">
-        <v>0</v>
-      </c>
-      <c r="F25" s="20">
-        <v>0</v>
-      </c>
-      <c r="G25" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20">
+      <c r="B25" s="15">
+        <v>0</v>
+      </c>
+      <c r="C25" s="18">
+        <v>0</v>
+      </c>
+      <c r="D25" s="18">
+        <v>0</v>
+      </c>
+      <c r="E25" s="18">
+        <v>0</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0</v>
+      </c>
+      <c r="G25" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M25" s="20">
+      <c r="M25" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N25" s="20">
+      <c r="N25" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16">
+      <c r="A26" s="14">
         <v>24</v>
       </c>
-      <c r="B26" s="17">
-        <v>0</v>
-      </c>
-      <c r="C26" s="20">
-        <v>0</v>
-      </c>
-      <c r="D26" s="20">
-        <v>0</v>
-      </c>
-      <c r="E26" s="20">
-        <v>0</v>
-      </c>
-      <c r="F26" s="20">
-        <v>0</v>
-      </c>
-      <c r="G26" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20">
+      <c r="B26" s="15">
+        <v>0</v>
+      </c>
+      <c r="C26" s="18">
+        <v>0</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0</v>
+      </c>
+      <c r="E26" s="18">
+        <v>0</v>
+      </c>
+      <c r="F26" s="18">
+        <v>0</v>
+      </c>
+      <c r="G26" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M26" s="20">
+      <c r="M26" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N26" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="16">
+      <c r="N26" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
         <v>25</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="18">
         <v>28</v>
       </c>
-      <c r="D27" s="20">
+      <c r="D27" s="18">
         <v>130</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="18">
         <v>3640</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="18">
         <v>18</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G27" s="18">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20">
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M27" s="20">
+      <c r="M27" s="18">
         <f t="shared" si="2"/>
         <v>4090</v>
       </c>
-      <c r="N27" s="20">
+      <c r="N27" s="18">
         <v>3640</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="16">
+    <row r="28" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
         <v>26</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="20">
+      <c r="C28" s="18">
         <v>28</v>
       </c>
-      <c r="D28" s="20">
+      <c r="D28" s="18">
         <v>50</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="18">
         <v>1400</v>
       </c>
-      <c r="F28" s="20">
-        <v>0</v>
-      </c>
-      <c r="G28" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20">
+      <c r="F28" s="18">
+        <v>0</v>
+      </c>
+      <c r="G28" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M28" s="20">
+      <c r="M28" s="18">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="N28" s="20">
+      <c r="N28" s="18">
         <v>1400</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="16">
+    <row r="29" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
         <v>27</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="18">
         <v>28</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="18">
         <v>50</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="18">
         <v>1400</v>
       </c>
-      <c r="F29" s="20">
-        <v>0</v>
-      </c>
-      <c r="G29" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20">
+      <c r="F29" s="18">
+        <v>0</v>
+      </c>
+      <c r="G29" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M29" s="20">
+      <c r="M29" s="18">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="N29" s="20">
+      <c r="N29" s="18">
         <v>1400</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16">
+      <c r="A30" s="14">
         <v>28</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="18">
         <v>11</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="18">
         <v>50</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="18">
         <v>550</v>
       </c>
-      <c r="F30" s="20">
-        <v>0</v>
-      </c>
-      <c r="G30" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="20">
+      <c r="F30" s="18">
+        <v>0</v>
+      </c>
+      <c r="G30" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="18">
         <v>550</v>
       </c>
-      <c r="L30" s="20">
+      <c r="L30" s="18">
         <f t="shared" si="1"/>
         <v>550</v>
       </c>
-      <c r="M30" s="20">
+      <c r="M30" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N30" s="20">
+      <c r="N30" s="18">
         <v>586</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16">
+      <c r="A31" s="14">
         <v>29</v>
       </c>
-      <c r="B31" s="17">
-        <v>0</v>
-      </c>
-      <c r="C31" s="20">
-        <v>0</v>
-      </c>
-      <c r="D31" s="20">
-        <v>0</v>
-      </c>
-      <c r="E31" s="20">
-        <v>0</v>
-      </c>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20">
+      <c r="B31" s="15">
+        <v>0</v>
+      </c>
+      <c r="C31" s="18">
+        <v>0</v>
+      </c>
+      <c r="D31" s="18">
+        <v>0</v>
+      </c>
+      <c r="E31" s="18">
+        <v>0</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M31" s="20">
+      <c r="M31" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N31" s="20">
+      <c r="N31" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16">
+      <c r="A32" s="14">
         <v>30</v>
       </c>
-      <c r="B32" s="17">
-        <v>0</v>
-      </c>
-      <c r="C32" s="20">
-        <v>0</v>
-      </c>
-      <c r="D32" s="20">
-        <v>0</v>
-      </c>
-      <c r="E32" s="20">
-        <v>0</v>
-      </c>
-      <c r="F32" s="20">
-        <v>0</v>
-      </c>
-      <c r="G32" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20">
+      <c r="B32" s="15">
+        <v>0</v>
+      </c>
+      <c r="C32" s="18">
+        <v>0</v>
+      </c>
+      <c r="D32" s="18">
+        <v>0</v>
+      </c>
+      <c r="E32" s="18">
+        <v>0</v>
+      </c>
+      <c r="F32" s="18">
+        <v>0</v>
+      </c>
+      <c r="G32" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M32" s="20">
+      <c r="M32" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N32" s="21">
+      <c r="N32" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16">
+      <c r="A33" s="14">
         <v>31</v>
       </c>
-      <c r="B33" s="17">
-        <v>0</v>
-      </c>
-      <c r="C33" s="20">
-        <v>0</v>
-      </c>
-      <c r="D33" s="20">
-        <v>0</v>
-      </c>
-      <c r="E33" s="20">
-        <v>0</v>
-      </c>
-      <c r="F33" s="20">
-        <v>0</v>
-      </c>
-      <c r="G33" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20">
+      <c r="B33" s="15">
+        <v>0</v>
+      </c>
+      <c r="C33" s="18">
+        <v>0</v>
+      </c>
+      <c r="D33" s="18">
+        <v>0</v>
+      </c>
+      <c r="E33" s="18">
+        <v>0</v>
+      </c>
+      <c r="F33" s="18">
+        <v>0</v>
+      </c>
+      <c r="G33" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M33" s="20">
+      <c r="M33" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N33" s="21">
+      <c r="N33" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="18" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16">
+      <c r="A34" s="14">
         <v>32</v>
       </c>
-      <c r="B34" s="17">
-        <v>0</v>
-      </c>
-      <c r="C34" s="20">
-        <v>0</v>
-      </c>
-      <c r="D34" s="20">
-        <v>0</v>
-      </c>
-      <c r="E34" s="20">
-        <v>0</v>
-      </c>
-      <c r="F34" s="20">
-        <v>0</v>
-      </c>
-      <c r="G34" s="20">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20">
+      <c r="B34" s="15">
+        <v>0</v>
+      </c>
+      <c r="C34" s="18">
+        <v>0</v>
+      </c>
+      <c r="D34" s="18">
+        <v>0</v>
+      </c>
+      <c r="E34" s="18">
+        <v>0</v>
+      </c>
+      <c r="F34" s="18">
+        <v>0</v>
+      </c>
+      <c r="G34" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M34" s="20">
+      <c r="M34" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N34" s="24">
+      <c r="N34" s="22">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="21">
+      <c r="C35" s="23"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="19">
         <f>SUBTOTAL(9,E3:E34)</f>
-        <v>57505</v>
-      </c>
-      <c r="F35" s="21">
+        <v>8075</v>
+      </c>
+      <c r="F35" s="19">
         <f t="shared" ref="F35:N35" si="3">SUBTOTAL(9,F3:F34)</f>
-        <v>1077</v>
-      </c>
-      <c r="G35" s="21">
+        <v>127</v>
+      </c>
+      <c r="G35" s="19">
         <f t="shared" si="3"/>
-        <v>26925</v>
-      </c>
-      <c r="H35" s="21">
+        <v>3175</v>
+      </c>
+      <c r="H35" s="19">
         <f t="shared" si="3"/>
-        <v>18494</v>
-      </c>
-      <c r="I35" s="21">
+        <v>7894</v>
+      </c>
+      <c r="I35" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J35" s="19">
         <f t="shared" si="3"/>
-        <v>5910</v>
-      </c>
-      <c r="K35" s="21">
+        <v>0</v>
+      </c>
+      <c r="K35" s="19">
         <f t="shared" si="3"/>
-        <v>1480</v>
-      </c>
-      <c r="L35" s="21">
+        <v>0</v>
+      </c>
+      <c r="L35" s="19">
         <f t="shared" si="3"/>
-        <v>7390</v>
-      </c>
-      <c r="M35" s="21">
+        <v>0</v>
+      </c>
+      <c r="M35" s="19">
+        <f>SUBTOTAL(9,M3:M34)</f>
+        <v>19144</v>
+      </c>
+      <c r="N35" s="19">
         <f t="shared" si="3"/>
-        <v>95534</v>
-      </c>
-      <c r="N35" s="21">
-        <f t="shared" si="3"/>
-        <v>56025</v>
+        <v>8075</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:N34">
     <filterColumn colId="1">
       <filters>
-        <filter val="احمد جمال"/>
-        <filter val="أم خالد"/>
-        <filter val="أم نداء"/>
-        <filter val="أم هشام"/>
-        <filter val="جمال عبدالله"/>
-        <filter val="خالد جمال"/>
-        <filter val="شريف جمال"/>
         <filter val="عاطف وصفي"/>
-        <filter val="عبير شعبان"/>
-        <filter val="عطايات جمال"/>
         <filter val="غانم عبدالله"/>
-        <filter val="محمد شعبان"/>
-        <filter val="مروان خالد"/>
-        <filter val="مصطفى شعبان"/>
-        <filter val="هشام خالد"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3529,8 +3526,8 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="94" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3538,7 +3535,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/اضافي وتصفية نهائي.xlsx
+++ b/اضافي وتصفية نهائي.xlsx
@@ -15,7 +15,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'تصفية '!$A$2:$N$34</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -820,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView rightToLeft="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -965,11 +964,11 @@
         <v>18</v>
       </c>
       <c r="F4" s="1">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1">
         <f t="shared" ref="G4:G30" si="0">SUM(C4:F4)</f>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>2</v>
@@ -2112,7 +2111,7 @@
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomRight" activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
